--- a/data/echoMRI/Kotz04092025.xlsx
+++ b/data/echoMRI/Kotz04092025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carosandovalcab/Documents/GitHub/data/data/echoMRI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carosandovalcaballero/Documents/GitHub/data/data/echoMRI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27B42BEB-B23F-CF48-8626-412A56E0C004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F27D2DE-621C-4D44-8D48-8692AC14BAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="44800" windowHeight="25200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtractedScans" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>RecNumber</t>
   </si>
@@ -53,39 +53,6 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>6198</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>6172</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>6181</t>
-  </si>
-  <si>
-    <t>6175</t>
-  </si>
-  <si>
-    <t>6182</t>
-  </si>
-  <si>
-    <t>6179</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>6187</t>
-  </si>
-  <si>
-    <t>2004</t>
   </si>
   <si>
     <t>2307</t>
@@ -592,7 +559,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -636,8 +603,8 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
+      <c r="B2">
+        <v>302</v>
       </c>
       <c r="C2">
         <v>2.78</v>
@@ -652,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -665,8 +632,8 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
+      <c r="B3">
+        <v>319</v>
       </c>
       <c r="C3">
         <v>10.37</v>
@@ -681,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -694,8 +661,8 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
+      <c r="B4">
+        <v>298</v>
       </c>
       <c r="C4">
         <v>6.99</v>
@@ -710,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -723,8 +690,8 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
+      <c r="B5">
+        <v>297</v>
       </c>
       <c r="C5">
         <v>5.76</v>
@@ -739,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -752,8 +719,8 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
+      <c r="B6">
+        <v>325</v>
       </c>
       <c r="C6">
         <v>9.56</v>
@@ -768,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -781,8 +748,8 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
+      <c r="B7">
+        <v>317</v>
       </c>
       <c r="C7">
         <v>6.71</v>
@@ -797,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -810,8 +777,8 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
+      <c r="B8">
+        <v>306</v>
       </c>
       <c r="C8">
         <v>10.14</v>
@@ -826,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -839,8 +806,8 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
+      <c r="B9">
+        <v>323</v>
       </c>
       <c r="C9">
         <v>8.82</v>
@@ -855,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -868,8 +835,8 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
+      <c r="B10">
+        <v>305</v>
       </c>
       <c r="C10">
         <v>9.51</v>
@@ -884,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -897,8 +864,8 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>19</v>
+      <c r="B11">
+        <v>304</v>
       </c>
       <c r="C11">
         <v>4.13</v>
@@ -913,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -926,8 +893,8 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>20</v>
+      <c r="B12">
+        <v>322</v>
       </c>
       <c r="C12">
         <v>7.96</v>
@@ -942,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -956,7 +923,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>8.14</v>
@@ -971,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -985,7 +952,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>5.17</v>
@@ -1000,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1014,7 +981,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>5.18</v>
@@ -1029,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1043,7 +1010,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>4.92</v>
@@ -1058,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1072,7 +1039,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>12.83</v>
@@ -1087,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1101,7 +1068,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>27.56</v>
@@ -1116,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1130,7 +1097,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <v>20.22</v>
@@ -1145,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1159,7 +1126,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C20">
         <v>9.08</v>
@@ -1174,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1188,7 +1155,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>5.31</v>
@@ -1203,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1217,7 +1184,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>4.7699999999999996</v>
@@ -1232,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -1246,7 +1213,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>17.760000000000002</v>
@@ -1261,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1275,7 +1242,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C24">
         <v>3.8</v>
@@ -1290,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1304,7 +1271,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C25">
         <v>4.3499999999999996</v>
@@ -1319,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1333,7 +1300,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C26">
         <v>22.18</v>
@@ -1348,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -1362,7 +1329,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C27">
         <v>8.43</v>
@@ -1377,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -1391,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C28">
         <v>17.04</v>
@@ -1406,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -1420,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C29">
         <v>7.1</v>
@@ -1435,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -1449,7 +1416,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C30">
         <v>18.36</v>
@@ -1464,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -1478,7 +1445,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C31">
         <v>15.19</v>
@@ -1493,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -1507,7 +1474,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <v>20.71</v>
@@ -1522,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -1536,7 +1503,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C33">
         <v>10.99</v>
@@ -1551,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -1565,7 +1532,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C34">
         <v>8.2100000000000009</v>
@@ -1580,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H34">
         <v>1</v>
